--- a/Table.xlsx
+++ b/Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GDC26\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A62D25B-FC3C-4E99-B606-33E0B8FDD7D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0157D3E-32DD-4C6A-B33C-25749C828252}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6885" yWindow="1710" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{54A74C66-9BAC-41EA-9179-4EFD88F06DA6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="83">
   <si>
     <t>TableName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,10 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nvarchar2(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>제일 긴 카테고리의 이름이 '아이스크림'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -237,10 +233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nvarchar2(8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>샌드위치/햄버거'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -301,11 +293,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발주일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">default </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샌드위치/햄버거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,7 +683,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -635,13 +691,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -652,22 +702,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -691,12 +729,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -725,6 +757,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1044,7 +1106,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1059,13 +1121,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="26"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1073,7 +1135,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1081,7 +1143,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1089,7 +1151,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1097,36 +1159,36 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
+      <c r="G7" s="26"/>
+      <c r="H7" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
+      <c r="I7" s="26"/>
+      <c r="J7" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2" t="s">
+      <c r="K7" s="26"/>
+      <c r="L7" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="2"/>
+      <c r="M7" s="26"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1240,14 +1302,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1256,10 +1318,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D411FBD9-ED4F-4566-AD1B-56411BB28682}">
-  <dimension ref="A2:H40"/>
+  <dimension ref="A2:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1267,121 +1329,122 @@
     <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.25" customWidth="1"/>
     <col min="8" max="8" width="37.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="13"/>
+      <c r="B4" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
+      <c r="A6" s="11">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="6" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15">
         <v>2</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="16" t="s">
+      <c r="B7" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23">
-        <v>2</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="24" t="s">
+      <c r="G7" s="16"/>
+      <c r="H7" s="18" t="s">
         <v>50</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="26" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1389,281 +1452,438 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="13"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="H14" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="30">
+      <c r="A15" s="22">
         <v>1</v>
       </c>
-      <c r="B15" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
+      <c r="B15" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="30">
+      <c r="A16" s="22">
         <v>2</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="32"/>
+      <c r="B16" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="24"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>3</v>
       </c>
     </row>
+    <row r="20" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="29"/>
+    </row>
+    <row r="22" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="32"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="22">
+        <v>1</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="22">
+        <v>2</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="25">
+        <v>3</v>
+      </c>
+    </row>
     <row r="31" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="11"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="29"/>
     </row>
     <row r="33" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="13"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="32"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="E34" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F34" s="28" t="s">
+      <c r="F34" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G34" s="28" t="s">
+      <c r="G34" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="29" t="s">
+      <c r="H34" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="30">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="22">
         <v>1</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B36" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="23"/>
+      <c r="E36" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="25">
+        <v>2</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="23"/>
+      <c r="H37" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="25">
+        <v>3</v>
+      </c>
+      <c r="B38" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C38" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="25">
+        <v>4</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="25"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="25">
+        <v>5</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="30" t="s">
+      <c r="D40" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F35" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="30">
+      <c r="F40" s="25"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="25">
+        <v>6</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="F41" s="25"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="25">
+        <v>7</v>
+      </c>
+      <c r="B42" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="31"/>
-      <c r="E36" s="30" t="s">
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F36" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" s="31"/>
-      <c r="H36" s="32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="30">
-        <v>3</v>
-      </c>
-      <c r="B37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="30">
-        <v>4</v>
-      </c>
-      <c r="B38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="30">
-        <v>5</v>
-      </c>
-      <c r="B39" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="30">
-        <v>6</v>
-      </c>
-      <c r="B40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" t="s">
-        <v>68</v>
+      <c r="F42" s="25"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F44" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="A11:H11"/>
+  <mergeCells count="10">
     <mergeCell ref="B32:H32"/>
     <mergeCell ref="B33:H33"/>
     <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:H22"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="A11:H11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
